--- a/Exe/Data/DataBase/元データ/ItemData.xlsx
+++ b/Exe/Data/DataBase/元データ/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Desktop\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{522DAEBB-06A8-443E-A5AC-612C59F31C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE8562-DFF8-4731-A7DB-65A81D9B262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
+    <workbookView xWindow="-900" yWindow="135" windowWidth="15825" windowHeight="14010" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="対象IDリスト" comment="対象とIDのリスト">Reference!$E$3:$F$10</definedName>
     <definedName name="対象種類" comment="対象のプルダウン用">Reference!$E$3:$E$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,18 +381,19 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>portion.png</t>
-  </si>
-  <si>
-    <t>magic_portion.png</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>bomb.png</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#ファイル名</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>potion.png</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>magic_potion.png</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1100,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99025B-C639-439B-A59F-5D3005C00747}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1137,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -1188,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>14</v>
@@ -1244,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>14</v>
@@ -1300,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>51</v>
@@ -1331,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>
